--- a/profiles/profile_confirm/scripts_params.xlsx
+++ b/profiles/profile_confirm/scripts_params.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\DL\scripts\dl\docs\profiles\profile_confirm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27465" windowHeight="10740"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="start_params" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -85,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,24 +718,24 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1034,7 +1029,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1048,7 +1043,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>7200</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9">
         <v>5</v>
@@ -1103,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="10">
-        <v>0.16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>7200</v>
+        <v>20</v>
       </c>
       <c r="D3" s="9">
         <v>5</v>
@@ -1126,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="10">
-        <v>1.67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8">
-        <v>7200</v>
+        <v>20</v>
       </c>
       <c r="D4" s="9">
         <v>5</v>
@@ -1149,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="10">
-        <v>1.67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1160,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>7200</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9">
         <v>5</v>
@@ -1172,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="10">
-        <v>1.67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
